--- a/export-data/multiproj test outline.xlsx
+++ b/export-data/multiproj test outline.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>STRIP 1</t>
   </si>
@@ -47,18 +47,6 @@
   </si>
   <si>
     <t>MAX VALUES</t>
-  </si>
-  <si>
-    <t>LEFT BOUND TEST</t>
-  </si>
-  <si>
-    <t>RIGHT BOUND TEST</t>
-  </si>
-  <si>
-    <t>LEFT BOUND CONTROL</t>
-  </si>
-  <si>
-    <t>RIGHT BOUND CONTROL</t>
   </si>
   <si>
     <t>graph</t>
@@ -99,13 +87,33 @@
   <si>
     <t>STRIP 2 Y</t>
   </si>
+  <si>
+    <t>Control Peak</t>
+  </si>
+  <si>
+    <t>Test Peak</t>
+  </si>
+  <si>
+    <t>Bounds: (250, 300)</t>
+  </si>
+  <si>
+    <t>Bounds: (50, 120)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -133,8 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,15 +166,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>599755</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>126499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -194,15 +204,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>550545</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -496,165 +506,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>22139</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>92398</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3029</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10948</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>12094</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>58</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>23</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>48</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>97</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>241</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>214</v>
+        <v>22139</v>
       </c>
       <c r="D4">
-        <v>129</v>
+        <v>92398</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>3029</v>
       </c>
       <c r="F4">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10948</v>
+      </c>
+      <c r="G4">
+        <v>12094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>290</v>
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>250</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>270</v>
+        <v>48</v>
       </c>
       <c r="F5">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="F11" t="s">
         <v>8</v>
-      </c>
-      <c r="B7">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -670,34 +660,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -9485,34 +9475,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
